--- a/data/trans_orig/PROV-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PROV-Provincia-trans_orig.xlsx
@@ -4352,19 +4352,19 @@
         <v>743795</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>692767</v>
+        <v>694874</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>789876</v>
+        <v>791053</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.2270060124675171</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.2114324312377689</v>
+        <v>0.2120753500543084</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.241069912570759</v>
+        <v>0.2414290952763342</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>745</v>
@@ -4373,19 +4373,19 @@
         <v>783511</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>736845</v>
+        <v>738879</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>832017</v>
+        <v>835199</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.2318630491918458</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.2180532204496681</v>
+        <v>0.2186553091998255</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.246217255092008</v>
+        <v>0.2471589899130493</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>1481</v>
@@ -4394,19 +4394,19 @@
         <v>1527306</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>1459376</v>
+        <v>1454797</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>1604581</v>
+        <v>1594370</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.2294719867803773</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.2192657423521311</v>
+        <v>0.2185777122279888</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.2410822689921326</v>
+        <v>0.2395480920573596</v>
       </c>
     </row>
     <row r="77">
@@ -4423,19 +4423,19 @@
         <v>615027</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>569714</v>
+        <v>570405</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>659483</v>
+        <v>662376</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.1877060602011139</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.1738766077453304</v>
+        <v>0.1740874301392337</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.2012741558904218</v>
+        <v>0.2021569228893228</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>621</v>
@@ -4444,19 +4444,19 @@
         <v>638219</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>596171</v>
+        <v>591971</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>685106</v>
+        <v>683698</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.188867063799036</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.1764238453754715</v>
+        <v>0.1751809954402988</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.2027423690074579</v>
+        <v>0.2023256035060773</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>1219</v>
@@ -4465,19 +4465,19 @@
         <v>1253246</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>1188999</v>
+        <v>1186067</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>1319537</v>
+        <v>1317259</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.1882955152973196</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.1786426264466906</v>
+        <v>0.1782020969133178</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.1982554787094006</v>
+        <v>0.1979132314512423</v>
       </c>
     </row>
     <row r="78">
@@ -4494,19 +4494,19 @@
         <v>270811</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>242603</v>
+        <v>236239</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>303138</v>
+        <v>302980</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.08265143189585593</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.07404237721104039</v>
+        <v>0.07209997549782993</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.09251775022643567</v>
+        <v>0.09246938738492164</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>270</v>
@@ -4515,19 +4515,19 @@
         <v>278144</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>247912</v>
+        <v>245202</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>310907</v>
+        <v>312769</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.08231066954628553</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.07336419023243648</v>
+        <v>0.07256222402823023</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.09200617709111523</v>
+        <v>0.09255728660912071</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>536</v>
@@ -4536,19 +4536,19 @@
         <v>548955</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>505446</v>
+        <v>508180</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>594227</v>
+        <v>593772</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.08247842286822775</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.07594139485830671</v>
+        <v>0.0763521992526197</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.08928040059762476</v>
+        <v>0.08921202506555226</v>
       </c>
     </row>
     <row r="79">
@@ -4565,19 +4565,19 @@
         <v>203308</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>178077</v>
+        <v>175458</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>232242</v>
+        <v>232831</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.06204955024257806</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.0543489982421211</v>
+        <v>0.05354959967757884</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.07088033654129847</v>
+        <v>0.07106002574282061</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>198</v>
@@ -4586,19 +4586,19 @@
         <v>207668</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>181340</v>
+        <v>179644</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>237853</v>
+        <v>236877</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.06145482916190453</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.05366363084696483</v>
+        <v>0.05316182785306625</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.07038737654292815</v>
+        <v>0.0700985254428827</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>404</v>
@@ -4607,19 +4607,19 @@
         <v>410976</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>375087</v>
+        <v>374500</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>454639</v>
+        <v>449560</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.06174760339895809</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.05635545141310853</v>
+        <v>0.05626716374503966</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.06830783500365589</v>
+        <v>0.06754470978083831</v>
       </c>
     </row>
     <row r="80">
@@ -4636,19 +4636,19 @@
         <v>358671</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>323707</v>
+        <v>320803</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>393779</v>
+        <v>393412</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.1094663188905285</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.09879537536834912</v>
+        <v>0.09790893550213174</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.1201812603153296</v>
+        <v>0.1200693796282745</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>384</v>
@@ -4657,19 +4657,19 @@
         <v>371456</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>338055</v>
+        <v>339860</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>408224</v>
+        <v>408718</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.1099243270071369</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.100039934973157</v>
+        <v>0.1005740578483503</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.1208050370113032</v>
+        <v>0.1209513574785324</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>746</v>
@@ -4678,19 +4678,19 @@
         <v>730127</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>681846</v>
+        <v>682807</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>783654</v>
+        <v>777349</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.1096988549644232</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.1024447635097634</v>
+        <v>0.1025891470725756</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.1177410843633059</v>
+        <v>0.1167937311482895</v>
       </c>
     </row>
     <row r="81">
@@ -4707,19 +4707,19 @@
         <v>318846</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>286289</v>
+        <v>285183</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>357523</v>
+        <v>355265</v>
       </c>
       <c r="G81" s="6" t="n">
         <v>0.09731169866799734</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.08737547099371649</v>
+        <v>0.08703784398278284</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.1091157746824372</v>
+        <v>0.1084266598443726</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>335</v>
@@ -4728,19 +4728,19 @@
         <v>335412</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>299877</v>
+        <v>300287</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>367440</v>
+        <v>370689</v>
       </c>
       <c r="N81" s="6" t="n">
         <v>0.09925791853737076</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.08874215753428298</v>
+        <v>0.08886335814769449</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.1087360001131038</v>
+        <v>0.1096973540120428</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>645</v>
@@ -4749,19 +4749,19 @@
         <v>654258</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>605503</v>
+        <v>604987</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>702527</v>
+        <v>704595</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.09829981724264457</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.09097458572325121</v>
+        <v>0.09089698027138216</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.1055520643369783</v>
+        <v>0.1058627020430525</v>
       </c>
     </row>
     <row r="82">
@@ -4778,19 +4778,19 @@
         <v>493075</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>451723</v>
+        <v>454209</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>536521</v>
+        <v>533334</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.1504863476641852</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.1378656487539109</v>
+        <v>0.1386243503025551</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.163746070586534</v>
+        <v>0.1627734372741035</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>499</v>
@@ -4799,19 +4799,19 @@
         <v>503949</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>467218</v>
+        <v>465191</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>547599</v>
+        <v>544646</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.1491327496273481</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.1382631218700738</v>
+        <v>0.1376631257897429</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.1620500675791337</v>
+        <v>0.1611760219459653</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>964</v>
@@ -4820,19 +4820,19 @@
         <v>997024</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>941404</v>
+        <v>938742</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>1060090</v>
+        <v>1058319</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.1497991101203431</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.1414424667644364</v>
+        <v>0.1410424325118784</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.1592745458478744</v>
+        <v>0.1590084327674128</v>
       </c>
     </row>
     <row r="83">
@@ -4849,19 +4849,19 @@
         <v>273010</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>241080</v>
+        <v>245068</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>305830</v>
+        <v>307074</v>
       </c>
       <c r="G83" s="6" t="n">
         <v>0.08332257997022398</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.07357749485746923</v>
+        <v>0.07479471627140828</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.09333912450575935</v>
+        <v>0.09371898446702498</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>245</v>
@@ -4870,19 +4870,19 @@
         <v>260838</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>232880</v>
+        <v>231209</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>294809</v>
+        <v>296512</v>
       </c>
       <c r="N83" s="6" t="n">
         <v>0.0771893931290724</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.06891570960387058</v>
+        <v>0.06842116784739322</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.08724223977964597</v>
+        <v>0.0877462697651006</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>516</v>
@@ -4891,19 +4891,19 @@
         <v>533848</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>490069</v>
+        <v>485810</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>578951</v>
+        <v>578948</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.08020868932770631</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.07363099680889323</v>
+        <v>0.07299105122760598</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.08698523565451678</v>
+        <v>0.0869848011978915</v>
       </c>
     </row>
     <row r="84">
@@ -8847,19 +8847,19 @@
         <v>779098</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>724681</v>
+        <v>730280</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>830763</v>
+        <v>829820</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.2273558678675521</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.2114758018107584</v>
+        <v>0.2131097514540191</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.2424326289015437</v>
+        <v>0.2421575347521624</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>757</v>
@@ -8868,19 +8868,19 @@
         <v>823853</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>775235</v>
+        <v>773123</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>874375</v>
+        <v>873163</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.2315293567263145</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.2178661405310689</v>
+        <v>0.2172726629065583</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.2457275796892413</v>
+        <v>0.2453870800763865</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>1474</v>
@@ -8889,19 +8889,19 @@
         <v>1602951</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>1529641</v>
+        <v>1527140</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>1677007</v>
+        <v>1674333</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.2294819059999241</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.2189866062976521</v>
+        <v>0.218628586605496</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.2400839067199355</v>
+        <v>0.2397010717813241</v>
       </c>
     </row>
     <row r="77">
@@ -8918,19 +8918,19 @@
         <v>662788</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>620659</v>
+        <v>612208</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>721040</v>
+        <v>711720</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.193414311500877</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.1811201106049209</v>
+        <v>0.1786541439680658</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.2104133281422364</v>
+        <v>0.2076936892995424</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>636</v>
@@ -8939,19 +8939,19 @@
         <v>693853</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>641645</v>
+        <v>648651</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>747068</v>
+        <v>741100</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.1949951479059351</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.1803228871239792</v>
+        <v>0.1822919595044372</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.2099503271148717</v>
+        <v>0.2082732208134264</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>1254</v>
@@ -8960,19 +8960,19 @@
         <v>1356641</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>1281771</v>
+        <v>1286087</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>1426345</v>
+        <v>1416695</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.1942196133938338</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.183501078430533</v>
+        <v>0.1841189689856453</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.2041985449150586</v>
+        <v>0.2028170411722447</v>
       </c>
     </row>
     <row r="78">
@@ -8989,19 +8989,19 @@
         <v>273981</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>241327</v>
+        <v>244932</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>307339</v>
+        <v>308401</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.07995293026087361</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.07042393805290388</v>
+        <v>0.07147594392616932</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.08968749814407014</v>
+        <v>0.08999721314662928</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>269</v>
@@ -9010,19 +9010,19 @@
         <v>280031</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>251316</v>
+        <v>250006</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>318162</v>
+        <v>315950</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.07869777440640822</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.07062784219169989</v>
+        <v>0.07025967699933731</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.08941371333194532</v>
+        <v>0.08879208592074757</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>530</v>
@@ -9031,19 +9031,19 @@
         <v>554012</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>508121</v>
+        <v>509131</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>600767</v>
+        <v>599990</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.07931353494942796</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.07274366446799772</v>
+        <v>0.07288821550274079</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.08600713794216973</v>
+        <v>0.08589590996796534</v>
       </c>
     </row>
     <row r="79">
@@ -9060,19 +9060,19 @@
         <v>212618</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>185307</v>
+        <v>186132</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>242274</v>
+        <v>243687</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.06204603507149039</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.05407616566947423</v>
+        <v>0.05431675382145526</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.07070030914310539</v>
+        <v>0.07111256477295233</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>212</v>
@@ -9081,19 +9081,19 @@
         <v>219591</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>191321</v>
+        <v>191541</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>250389</v>
+        <v>251339</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.06171217749193411</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.05376741826840309</v>
+        <v>0.05382910569715633</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.07036736985176273</v>
+        <v>0.07063441919806276</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>408</v>
@@ -9102,19 +9102,19 @@
         <v>432209</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>395738</v>
+        <v>395298</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>471850</v>
+        <v>474192</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.06187596298817146</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.05665471915973534</v>
+        <v>0.05659174978790098</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.06755105235490901</v>
+        <v>0.06788627171322199</v>
       </c>
     </row>
     <row r="80">
@@ -9131,19 +9131,19 @@
         <v>373982</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>337153</v>
+        <v>335287</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>412104</v>
+        <v>412720</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.1091351823504495</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.0983878275056659</v>
+        <v>0.09784311696664713</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.120260000078661</v>
+        <v>0.1204395066597524</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>371</v>
@@ -9152,19 +9152,19 @@
         <v>388951</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>352123</v>
+        <v>353517</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>425763</v>
+        <v>427185</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.1093078223121981</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.09895792503081284</v>
+        <v>0.09934975636829574</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.1196531283281916</v>
+        <v>0.1200528316591131</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>715</v>
@@ -9173,19 +9173,19 @@
         <v>762933</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>713152</v>
+        <v>705451</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>819773</v>
+        <v>817594</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.1092231277491962</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.102096327780619</v>
+        <v>0.1009939194146285</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.1173604254191002</v>
+        <v>0.1170484331074967</v>
       </c>
     </row>
     <row r="81">
@@ -9202,19 +9202,19 @@
         <v>324046</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>287856</v>
+        <v>293835</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>358646</v>
+        <v>364509</v>
       </c>
       <c r="G81" s="6" t="n">
         <v>0.09456286242964453</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.08400203244311608</v>
+        <v>0.0857465633809112</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.1046598552693862</v>
+        <v>0.1063706880538366</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>317</v>
@@ -9223,19 +9223,19 @@
         <v>341020</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>305637</v>
+        <v>306448</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>378804</v>
+        <v>376332</v>
       </c>
       <c r="N81" s="6" t="n">
         <v>0.09583766270200099</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.08589383692773926</v>
+        <v>0.08612173330188226</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.1064561251538461</v>
+        <v>0.1057615017835904</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>636</v>
@@ -9244,19 +9244,19 @@
         <v>665066</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>617808</v>
+        <v>614543</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>717185</v>
+        <v>722530</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.0952122649036676</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.08844673516785488</v>
+        <v>0.08797929178175316</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.1026737029473788</v>
+        <v>0.1034388892214013</v>
       </c>
     </row>
     <row r="82">
@@ -9273,19 +9273,19 @@
         <v>505527</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>460807</v>
+        <v>467595</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>549201</v>
+        <v>554572</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.1475225819997655</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.1344722845475842</v>
+        <v>0.1364532854214219</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.1602672955230256</v>
+        <v>0.1618347169079237</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>480</v>
@@ -9294,19 +9294,19 @@
         <v>523765</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>481363</v>
+        <v>481143</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>571073</v>
+        <v>571735</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.1471949176150497</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.135278528777707</v>
+        <v>0.1352168617281603</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.1604900485711543</v>
+        <v>0.1606759290936379</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>952</v>
@@ -9315,19 +9315,19 @@
         <v>1029292</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>967427</v>
+        <v>968934</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>1090826</v>
+        <v>1096288</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.1473556648232494</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.1384989181436927</v>
+        <v>0.1387146878549173</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.1561649177189644</v>
+        <v>0.1569468720988563</v>
       </c>
     </row>
     <row r="83">
@@ -9344,19 +9344,19 @@
         <v>294738</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>260324</v>
+        <v>262787</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>329289</v>
+        <v>329072</v>
       </c>
       <c r="G83" s="6" t="n">
         <v>0.08601022851934738</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.07596750300292823</v>
+        <v>0.07668635491087257</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.09609279762492098</v>
+        <v>0.09602947489269274</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>256</v>
@@ -9365,19 +9365,19 @@
         <v>287245</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>254600</v>
+        <v>255169</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>322804</v>
+        <v>321289</v>
       </c>
       <c r="N83" s="6" t="n">
         <v>0.08072514084015921</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.07155089035743803</v>
+        <v>0.07171075605799916</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.09071835678771388</v>
+        <v>0.09029259390977035</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>538</v>
@@ -9386,19 +9386,19 @@
         <v>581983</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>537606</v>
+        <v>533221</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>629655</v>
+        <v>632175</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.08331792519252947</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.0769647572466565</v>
+        <v>0.07633709710313458</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.09014275873309632</v>
+        <v>0.09050357173467116</v>
       </c>
     </row>
     <row r="84">
@@ -13342,19 +13342,19 @@
         <v>778583</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>733481</v>
+        <v>726751</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>831321</v>
+        <v>827493</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.2293761445960184</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.2160888107295058</v>
+        <v>0.2141060454845514</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.2449130710302106</v>
+        <v>0.2437853116236822</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>755</v>
@@ -13363,19 +13363,19 @@
         <v>826167</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>772522</v>
+        <v>765883</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>877795</v>
+        <v>876892</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.2330814532453819</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.2179469019841337</v>
+        <v>0.2160737827717134</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.247646925460617</v>
+        <v>0.2473921437287309</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>1505</v>
@@ -13384,19 +13384,19 @@
         <v>1604750</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>1534549</v>
+        <v>1533746</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>1678118</v>
+        <v>1676305</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.231268899444967</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.2211518207279</v>
+        <v>0.2210361691832918</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.2418424007267929</v>
+        <v>0.2415810542710987</v>
       </c>
     </row>
     <row r="77">
@@ -13413,19 +13413,19 @@
         <v>656558</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>608269</v>
+        <v>613423</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>705253</v>
+        <v>703775</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.1934267026472532</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.179200422093302</v>
+        <v>0.1807187057449167</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.20777265608925</v>
+        <v>0.2073373308726477</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>646</v>
@@ -13434,19 +13434,19 @@
         <v>691294</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>644070</v>
+        <v>645254</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>741682</v>
+        <v>739670</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.1950305562642192</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.1817076716330074</v>
+        <v>0.1820415738481259</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.2092461766257083</v>
+        <v>0.2086784589102714</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>1226</v>
@@ -13455,19 +13455,19 @@
         <v>1347852</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>1283899</v>
+        <v>1275121</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>1419645</v>
+        <v>1417191</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.1942459870842023</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.1850294341208037</v>
+        <v>0.183764307711317</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.2045924338812472</v>
+        <v>0.2042388291900029</v>
       </c>
     </row>
     <row r="78">
@@ -13484,19 +13484,19 @@
         <v>263123</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>233105</v>
+        <v>233222</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>294596</v>
+        <v>294729</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.07751792552798896</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.06867441463385959</v>
+        <v>0.06870878969257065</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.0867901760376059</v>
+        <v>0.08682933622390109</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>263</v>
@@ -13505,19 +13505,19 @@
         <v>273115</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>244227</v>
+        <v>242942</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>309794</v>
+        <v>304270</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.07705226750562265</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.06890239717025715</v>
+        <v>0.06853974903692049</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.08740037992659554</v>
+        <v>0.08584195915526152</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>522</v>
@@ -13526,19 +13526,19 @@
         <v>536238</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>490066</v>
+        <v>492352</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>578307</v>
+        <v>580895</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.07728005695530284</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.07062595522978779</v>
+        <v>0.07095536978863698</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.08334284065914352</v>
+        <v>0.08371577545481841</v>
       </c>
     </row>
     <row r="79">
@@ -13555,19 +13555,19 @@
         <v>211221</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>185928</v>
+        <v>184682</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>239938</v>
+        <v>240089</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.06222722370649061</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.05477584064521199</v>
+        <v>0.05440864826933894</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.07068743759762881</v>
+        <v>0.07073205954168466</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>223</v>
@@ -13576,19 +13576,19 @@
         <v>218587</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>192627</v>
+        <v>189931</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>248982</v>
+        <v>247046</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.06166861612582146</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.05434467846730878</v>
+        <v>0.05358394602262886</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.07024370391341746</v>
+        <v>0.06969765673713219</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>435</v>
@@ -13597,19 +13597,19 @@
         <v>429808</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>394599</v>
+        <v>393311</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>472630</v>
+        <v>473964</v>
       </c>
       <c r="U79" s="6" t="n">
         <v>0.06194187441253837</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.05686772460129447</v>
+        <v>0.05668213270110705</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.06811317961743171</v>
+        <v>0.06830543629322666</v>
       </c>
     </row>
     <row r="80">
@@ -13626,19 +13626,19 @@
         <v>369964</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>333986</v>
+        <v>331063</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>404444</v>
+        <v>404867</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.1089940521233165</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.09839458463972554</v>
+        <v>0.09753363438405815</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.1191521359735051</v>
+        <v>0.1192766978329302</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>358</v>
@@ -13647,19 +13647,19 @@
         <v>387283</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>348509</v>
+        <v>352172</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>428527</v>
+        <v>426134</v>
       </c>
       <c r="N80" s="6" t="n">
         <v>0.1092617892534468</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.09832261117974127</v>
+        <v>0.09935619728246822</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.1208977114718884</v>
+        <v>0.1202224913626695</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>712</v>
@@ -13668,19 +13668,19 @@
         <v>757247</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>704564</v>
+        <v>702876</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>813447</v>
+        <v>807672</v>
       </c>
       <c r="U80" s="6" t="n">
         <v>0.1091308182605679</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.1015384691869766</v>
+        <v>0.1012951547920844</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.1172301591599016</v>
+        <v>0.1163977631160859</v>
       </c>
     </row>
     <row r="81">
@@ -13697,19 +13697,19 @@
         <v>318565</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>288778</v>
+        <v>289740</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>354331</v>
+        <v>357044</v>
       </c>
       <c r="G81" s="6" t="n">
         <v>0.09385153649255082</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.08507601983215891</v>
+        <v>0.08535960152533345</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.1043883521029004</v>
+        <v>0.105187594548883</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>332</v>
@@ -13718,19 +13718,19 @@
         <v>336309</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>303241</v>
+        <v>301216</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>374486</v>
+        <v>370506</v>
       </c>
       <c r="N81" s="6" t="n">
         <v>0.09488080531906899</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.08555143300155002</v>
+        <v>0.08498033238873594</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.1056514403373774</v>
+        <v>0.1045284560233364</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>667</v>
@@ -13739,19 +13739,19 @@
         <v>654874</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>609571</v>
+        <v>610568</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>710125</v>
+        <v>706150</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.09437731011807554</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.08784845750583499</v>
+        <v>0.08799217066560362</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.1023398278823019</v>
+        <v>0.101766981350854</v>
       </c>
     </row>
     <row r="82">
@@ -13768,19 +13768,19 @@
         <v>502575</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>462370</v>
+        <v>461795</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>545422</v>
+        <v>547826</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.1480623136889616</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.1362176479229643</v>
+        <v>0.1360482762781758</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.1606852474396331</v>
+        <v>0.1613933646381763</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>484</v>
@@ -13789,19 +13789,19 @@
         <v>523084</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>480303</v>
+        <v>480692</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>568372</v>
+        <v>570180</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.1475744973643502</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.1355050346264857</v>
+        <v>0.1356145695008593</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.1603513038892736</v>
+        <v>0.1608615148435684</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>959</v>
@@ -13810,19 +13810,19 @@
         <v>1025659</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>969832</v>
+        <v>962912</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>1086905</v>
+        <v>1082914</v>
       </c>
       <c r="U82" s="6" t="n">
         <v>0.1478131261579949</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.139767588684366</v>
+        <v>0.1387702556453242</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.1566395325508492</v>
+        <v>0.1560643547238079</v>
       </c>
     </row>
     <row r="83">
@@ -13839,19 +13839,19 @@
         <v>293761</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>261182</v>
+        <v>258143</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>331008</v>
+        <v>326216</v>
       </c>
       <c r="G83" s="6" t="n">
         <v>0.08654410121741993</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.07694602753175675</v>
+        <v>0.07605085901337509</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.09751728717892628</v>
+        <v>0.09610546548341395</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>277</v>
@@ -13860,19 +13860,19 @@
         <v>288703</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>254660</v>
+        <v>259054</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>323368</v>
+        <v>328156</v>
       </c>
       <c r="N83" s="6" t="n">
         <v>0.08145001492208884</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.07184572990717794</v>
+        <v>0.07308534938659766</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.09122969945589719</v>
+        <v>0.09258054253587449</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>543</v>
@@ -13881,19 +13881,19 @@
         <v>582464</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>538782</v>
+        <v>533985</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>636154</v>
+        <v>628429</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.08394192756635119</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.07764666484906665</v>
+        <v>0.07695541397217974</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.09167950339921413</v>
+        <v>0.09056612602885249</v>
       </c>
     </row>
     <row r="84">
@@ -17837,19 +17837,19 @@
         <v>798072</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>747362</v>
+        <v>743161</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>854832</v>
+        <v>851181</v>
       </c>
       <c r="G76" s="6" t="n">
         <v>0.2259059374699929</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.2115517183022346</v>
+        <v>0.2103627183654368</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.2419727440175997</v>
+        <v>0.2409391189914274</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>1062</v>
@@ -17858,19 +17858,19 @@
         <v>831331</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>786127</v>
+        <v>782272</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>880080</v>
+        <v>879763</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.2224623067705487</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.2103656976940257</v>
+        <v>0.2093341443312874</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.2355074035164612</v>
+        <v>0.2354225368520702</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>1824</v>
@@ -17879,19 +17879,19 @@
         <v>1629403</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>1562130</v>
+        <v>1560724</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>1701495</v>
+        <v>1705954</v>
       </c>
       <c r="U76" s="6" t="n">
         <v>0.2241357596587673</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.2148818036038014</v>
+        <v>0.2146883931020101</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.2340525067515553</v>
+        <v>0.2346658073462952</v>
       </c>
     </row>
     <row r="77">
@@ -17908,19 +17908,19 @@
         <v>719687</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>667955</v>
+        <v>667962</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>776107</v>
+        <v>781356</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.2037179755074986</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.1890745075631596</v>
+        <v>0.1890764659054187</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.21968840657753</v>
+        <v>0.2211743208679725</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>960</v>
@@ -17929,19 +17929,19 @@
         <v>772057</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>727979</v>
+        <v>729111</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>823054</v>
+        <v>815977</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.2066005623561576</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.1948055236019431</v>
+        <v>0.1951084107289262</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.2202474198221861</v>
+        <v>0.2183534253587056</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>1559</v>
@@ -17950,19 +17950,19 @@
         <v>1491744</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>1415068</v>
+        <v>1420214</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>1558016</v>
+        <v>1562270</v>
       </c>
       <c r="U77" s="6" t="n">
         <v>0.2051997520752503</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.1946524659541311</v>
+        <v>0.1953603316102825</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.2143159152935587</v>
+        <v>0.2149011425486116</v>
       </c>
     </row>
     <row r="78">
@@ -17979,19 +17979,19 @@
         <v>270707</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>243381</v>
+        <v>240334</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>299833</v>
+        <v>297765</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.07662760391777602</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.06889248121972354</v>
+        <v>0.06803001047695617</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.08487208046764691</v>
+        <v>0.08428672098055257</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>460</v>
@@ -18000,19 +18000,19 @@
         <v>263750</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>238558</v>
+        <v>241097</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>291187</v>
+        <v>288865</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.07057897382997617</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.06383762194583573</v>
+        <v>0.0645170786492089</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.07792090907304448</v>
+        <v>0.07729958775337133</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>831</v>
@@ -18021,19 +18021,19 @@
         <v>534457</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>494302</v>
+        <v>493727</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>570117</v>
+        <v>572466</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.07351834171626798</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.06799474662693325</v>
+        <v>0.06791551768348736</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.07842354761743554</v>
+        <v>0.07874668882434033</v>
       </c>
     </row>
     <row r="79">
@@ -18050,19 +18050,19 @@
         <v>205665</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>182209</v>
+        <v>181965</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>234477</v>
+        <v>231051</v>
       </c>
       <c r="G79" s="6" t="n">
         <v>0.0582164184083855</v>
       </c>
       <c r="H79" s="6" t="n">
-        <v>0.05157680947886796</v>
+        <v>0.05150799028225347</v>
       </c>
       <c r="I79" s="6" t="n">
-        <v>0.06637210778818667</v>
+        <v>0.0654024422374386</v>
       </c>
       <c r="J79" s="5" t="n">
         <v>495</v>
@@ -18071,19 +18071,19 @@
         <v>228918</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>208572</v>
+        <v>209204</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>250731</v>
+        <v>250738</v>
       </c>
       <c r="N79" s="6" t="n">
-        <v>0.06125780760878346</v>
+        <v>0.06125780760878344</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.05581330500566472</v>
+        <v>0.05598254374242534</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.06709495398649433</v>
+        <v>0.06709684251275695</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>774</v>
@@ -18092,19 +18092,19 @@
         <v>434582</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>402660</v>
+        <v>403008</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>467780</v>
+        <v>467502</v>
       </c>
       <c r="U79" s="6" t="n">
-        <v>0.05977982637739751</v>
+        <v>0.0597798263773975</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.05538862713335473</v>
+        <v>0.05543661762472287</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.06434635447985879</v>
+        <v>0.06430820679657062</v>
       </c>
     </row>
     <row r="80">
@@ -18121,19 +18121,19 @@
         <v>373145</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>326821</v>
+        <v>330201</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>423968</v>
+        <v>424450</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>0.1056242199901321</v>
+        <v>0.105624219990132</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.09251143971765534</v>
+        <v>0.09346825217298682</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.1200102878472246</v>
+        <v>0.1201466589726267</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>599</v>
@@ -18142,19 +18142,19 @@
         <v>421961</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>388178</v>
+        <v>387368</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>462808</v>
+        <v>460384</v>
       </c>
       <c r="N80" s="6" t="n">
-        <v>0.1129158621532873</v>
+        <v>0.1129158621532872</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.103875474136037</v>
+        <v>0.1036586523236607</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.123846396666283</v>
+        <v>0.1231977261103848</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>891</v>
@@ -18163,19 +18163,19 @@
         <v>795107</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>740189</v>
+        <v>735131</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>864074</v>
+        <v>854759</v>
       </c>
       <c r="U80" s="6" t="n">
-        <v>0.1093724451313173</v>
+        <v>0.1093724451313172</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.1018181908031549</v>
+        <v>0.1011224447370263</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.1188594457110947</v>
+        <v>0.11757799792543</v>
       </c>
     </row>
     <row r="81">
@@ -18192,19 +18192,19 @@
         <v>315993</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>283438</v>
+        <v>285328</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>348964</v>
+        <v>350931</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>0.08944656812288096</v>
+        <v>0.08944656812288095</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.08023131896434572</v>
+        <v>0.08076619521661023</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.09877945971115382</v>
+        <v>0.0993362492845819</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>536</v>
@@ -18213,19 +18213,19 @@
         <v>356381</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>327780</v>
+        <v>328606</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>383681</v>
+        <v>389465</v>
       </c>
       <c r="N81" s="6" t="n">
-        <v>0.09536679467081349</v>
+        <v>0.09536679467081348</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.08771302020904755</v>
+        <v>0.08793414906001676</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.1026720870288443</v>
+        <v>0.1042199696313828</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>896</v>
@@ -18234,19 +18234,19 @@
         <v>672375</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>631919</v>
+        <v>629243</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>721684</v>
+        <v>716673</v>
       </c>
       <c r="U81" s="6" t="n">
-        <v>0.09248982525096673</v>
+        <v>0.09248982525096672</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.08692486819389579</v>
+        <v>0.08655681288002164</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.09927271834133321</v>
+        <v>0.09858331390649774</v>
       </c>
     </row>
     <row r="82">
@@ -18263,19 +18263,19 @@
         <v>530647</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>476427</v>
+        <v>480949</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>584362</v>
+        <v>587287</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.1502074001212147</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.1348595473057999</v>
+        <v>0.1361395170354875</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.1654122925917586</v>
+        <v>0.1662401223585251</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>717</v>
@@ -18284,19 +18284,19 @@
         <v>546494</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>507976</v>
+        <v>510541</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>583934</v>
+        <v>588601</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.1462405736149502</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.1359331526036402</v>
+        <v>0.1366196641013308</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.1562592327266339</v>
+        <v>0.1575081288920549</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>1099</v>
@@ -18305,19 +18305,19 @@
         <v>1077141</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>1018682</v>
+        <v>1014973</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>1148446</v>
+        <v>1142691</v>
       </c>
       <c r="U82" s="6" t="n">
-        <v>0.1481682766276577</v>
+        <v>0.1481682766276576</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.1401267948496628</v>
+        <v>0.1396165814294332</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.1579766999632562</v>
+        <v>0.1571850750642175</v>
       </c>
     </row>
     <row r="83">
@@ -18334,19 +18334,19 @@
         <v>318845</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>284688</v>
+        <v>283625</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>359432</v>
+        <v>354111</v>
       </c>
       <c r="G83" s="6" t="n">
-        <v>0.09025387646211935</v>
+        <v>0.09025387646211937</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.0805852194602992</v>
+        <v>0.08028434228777899</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.1017424317694898</v>
+        <v>0.1002364027417744</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>538</v>
@@ -18355,19 +18355,19 @@
         <v>316061</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>287592</v>
+        <v>287648</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>346655</v>
+        <v>345359</v>
       </c>
       <c r="N83" s="6" t="n">
-        <v>0.08457711899548315</v>
+        <v>0.08457711899548313</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.07695893972457017</v>
+        <v>0.07697386989739602</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.09276395918151055</v>
+        <v>0.09241732209832934</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>869</v>
@@ -18376,19 +18376,19 @@
         <v>634906</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>588785</v>
+        <v>592799</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>682429</v>
+        <v>683297</v>
       </c>
       <c r="U83" s="6" t="n">
-        <v>0.0873357731623752</v>
+        <v>0.08733577316237517</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.08099152362500113</v>
+        <v>0.08154363904955982</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.0938728344919823</v>
+        <v>0.09399218743375257</v>
       </c>
     </row>
     <row r="84">
